--- a/기획/간트차트.xlsx
+++ b/기획/간트차트.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shangus\Documents\GitHub\OnlyLukHero\기획\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E839E4C-1CBE-4753-96A2-2D10C81C9167}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2982B449-E47C-4EAB-BA1B-6BAD4DC9C4D9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{73C047DB-A7CD-4C34-8681-01121159E711}"/>
   </bookViews>
@@ -293,7 +293,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -323,6 +323,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -646,7 +649,7 @@
   <dimension ref="C5:P21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -694,7 +697,7 @@
       </c>
     </row>
     <row r="6" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D6" s="4"/>
@@ -712,7 +715,7 @@
       <c r="P6" s="1"/>
     </row>
     <row r="7" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="10" t="s">
         <v>0</v>
       </c>
       <c r="D7" s="4"/>

--- a/기획/간트차트.xlsx
+++ b/기획/간트차트.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shangus\Documents\GitHub\OnlyLukHero\기획\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2982B449-E47C-4EAB-BA1B-6BAD4DC9C4D9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7AC1570-1245-4816-86D5-C43D3A9529F0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{73C047DB-A7CD-4C34-8681-01121159E711}"/>
+    <workbookView xWindow="32340" yWindow="2805" windowWidth="20910" windowHeight="11835" xr2:uid="{73C047DB-A7CD-4C34-8681-01121159E711}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -648,7 +648,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F0C9543-ABC9-4DA6-AEA5-6778A96FD0C7}">
   <dimension ref="C5:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -733,7 +733,7 @@
       <c r="P7" s="1"/>
     </row>
     <row r="8" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="10" t="s">
         <v>1</v>
       </c>
       <c r="D8" s="1"/>

--- a/기획/간트차트.xlsx
+++ b/기획/간트차트.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shangus\Documents\GitHub\OnlyLukHero\기획\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7AC1570-1245-4816-86D5-C43D3A9529F0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97296C3C-15C6-47EC-9B8E-E53B4DC0BBED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32340" yWindow="2805" windowWidth="20910" windowHeight="11835" xr2:uid="{73C047DB-A7CD-4C34-8681-01121159E711}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{73C047DB-A7CD-4C34-8681-01121159E711}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -648,8 +648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F0C9543-ABC9-4DA6-AEA5-6778A96FD0C7}">
   <dimension ref="C5:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -769,7 +769,7 @@
       <c r="P9" s="1"/>
     </row>
     <row r="10" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="1"/>
